--- a/public/discipline-assesment/discipline-assesment.xlsx
+++ b/public/discipline-assesment/discipline-assesment.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEBC28D-09C0-9D49-9E76-871E81F4C2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A5C046-D61A-4BDB-8D8D-860EFDB6B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Bulan</t>
   </si>
@@ -48,32 +57,17 @@
     <t>Terlambat</t>
   </si>
   <si>
-    <t>EN-4-046</t>
+    <t>00006</t>
   </si>
   <si>
-    <t>Agus Priyanto</t>
-  </si>
-  <si>
-    <t>EN-4-047</t>
-  </si>
-  <si>
-    <t>EN-4-048</t>
-  </si>
-  <si>
-    <t>EN-4-049</t>
-  </si>
-  <si>
-    <t>EN-4-050</t>
-  </si>
-  <si>
-    <t>EN-4-051</t>
+    <t>Adem Sukma Mulia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -91,11 +85,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -147,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,17 +537,17 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="7" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23.1" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,14 +570,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -600,41 +590,45 @@
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>2025</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>2025</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="5">
         <v>0</v>
       </c>
@@ -645,38 +639,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>2025</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>2025</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
@@ -684,20 +682,22 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>2025</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
@@ -705,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -726,7 +726,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -735,7 +735,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -744,7 +744,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -753,7 +753,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -762,7 +762,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -771,7 +771,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -780,7 +780,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -789,7 +789,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -798,7 +798,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -807,7 +807,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -816,7 +816,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -825,7 +825,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -835,7 +835,6 @@
       <c r="G21" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/public/discipline-assesment/discipline-assesment.xlsx
+++ b/public/discipline-assesment/discipline-assesment.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chepp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A5C046-D61A-4BDB-8D8D-860EFDB6B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1775030-B88A-46B2-B61D-8DB245F60C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Bulan</t>
   </si>
@@ -57,10 +48,22 @@
     <t>Terlambat</t>
   </si>
   <si>
-    <t>00006</t>
-  </si>
-  <si>
-    <t>Adem Sukma Mulia</t>
+    <t>EN-4-034</t>
+  </si>
+  <si>
+    <t>Nurdiansah</t>
+  </si>
+  <si>
+    <t>EN-4-095</t>
+  </si>
+  <si>
+    <t>Rahmat Hidayat</t>
+  </si>
+  <si>
+    <t>EN-4-077</t>
+  </si>
+  <si>
+    <t>Ahmad Juantoro</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,9 +152,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,17 +539,17 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="7" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" customWidth="1"/>
+    <col min="5" max="7" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.1" customHeight="1">
+    <row r="1" spans="1:7" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,16 +574,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>2025</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -590,21 +592,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>2025</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -613,17 +615,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>2025</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -640,73 +642,31 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>9</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4"/>
